--- a/GMLA loading analysis/PMsystem_PRweb/(Output) Project conts.xlsx
+++ b/GMLA loading analysis/PMsystem_PRweb/(Output) Project conts.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangcooper\Documents\Python\Projects\GMLA loading analysis\PMsystem_PRweb\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470E346F-3F38-4D4F-8704-C981B51EC639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -373,12 +367,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -386,15 +380,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -433,33 +420,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -501,7 +477,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -533,27 +509,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -585,24 +543,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -778,70 +718,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AT85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="48.625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46">
       <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-    </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+    </row>
+    <row r="2" spans="1:46">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -978,7 +913,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:46">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -986,8 +921,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:46">
+      <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1000,8 +935,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
+    <row r="5" spans="1:46">
+      <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>35</v>
       </c>
@@ -1024,8 +959,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
+    <row r="6" spans="1:46">
+      <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>36</v>
       </c>
@@ -1048,8 +983,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
+    <row r="7" spans="1:46">
+      <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>37</v>
       </c>
@@ -1072,8 +1007,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
+    <row r="8" spans="1:46">
+      <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>38</v>
       </c>
@@ -1102,8 +1037,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
+    <row r="9" spans="1:46">
+      <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>39</v>
       </c>
@@ -1114,8 +1049,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
+    <row r="10" spans="1:46">
+      <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>40</v>
       </c>
@@ -1126,8 +1061,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
+    <row r="11" spans="1:46">
+      <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>41</v>
       </c>
@@ -1144,8 +1079,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+    <row r="12" spans="1:46">
+      <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>42</v>
       </c>
@@ -1156,8 +1091,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
+    <row r="13" spans="1:46">
+      <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>43</v>
       </c>
@@ -1180,8 +1115,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
+    <row r="14" spans="1:46">
+      <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>44</v>
       </c>
@@ -1210,8 +1145,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:46">
+      <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1236,8 +1171,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
+    <row r="16" spans="1:46">
+      <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>46</v>
       </c>
@@ -1260,8 +1195,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
+    <row r="17" spans="1:40">
+      <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>47</v>
       </c>
@@ -1284,8 +1219,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
+    <row r="18" spans="1:40">
+      <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>48</v>
       </c>
@@ -1302,8 +1237,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
+    <row r="19" spans="1:40">
+      <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>49</v>
       </c>
@@ -1326,8 +1261,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
+    <row r="20" spans="1:40">
+      <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>50</v>
       </c>
@@ -1338,8 +1273,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
+    <row r="21" spans="1:40">
+      <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>51</v>
       </c>
@@ -1368,8 +1303,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
+    <row r="22" spans="1:40">
+      <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>52</v>
       </c>
@@ -1398,8 +1333,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
+    <row r="23" spans="1:40">
+      <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>53</v>
       </c>
@@ -1428,8 +1363,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
+    <row r="24" spans="1:40">
+      <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>54</v>
       </c>
@@ -1458,8 +1393,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
+    <row r="25" spans="1:40">
+      <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>55</v>
       </c>
@@ -1488,8 +1423,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
+    <row r="26" spans="1:40">
+      <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>56</v>
       </c>
@@ -1518,8 +1453,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
+    <row r="27" spans="1:40">
+      <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>57</v>
       </c>
@@ -1530,8 +1465,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
+    <row r="28" spans="1:40">
+      <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>58</v>
       </c>
@@ -1560,8 +1495,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
+    <row r="29" spans="1:40">
+      <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>59</v>
       </c>
@@ -1590,8 +1525,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
+    <row r="30" spans="1:40">
+      <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>60</v>
       </c>
@@ -1620,8 +1555,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
+    <row r="31" spans="1:40">
+      <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>61</v>
       </c>
@@ -1632,8 +1567,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:40">
+      <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1646,8 +1581,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
+    <row r="33" spans="1:46">
+      <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>63</v>
       </c>
@@ -1670,8 +1605,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
+    <row r="34" spans="1:46">
+      <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
         <v>64</v>
       </c>
@@ -1688,8 +1623,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
+    <row r="35" spans="1:46">
+      <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>65</v>
       </c>
@@ -1700,8 +1635,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
+    <row r="36" spans="1:46">
+      <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
         <v>66</v>
       </c>
@@ -1724,8 +1659,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
+    <row r="37" spans="1:46">
+      <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
         <v>67</v>
       </c>
@@ -1736,8 +1671,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
+    <row r="38" spans="1:46">
+      <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
         <v>68</v>
       </c>
@@ -1748,8 +1683,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
+    <row r="39" spans="1:46">
+      <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
         <v>69</v>
       </c>
@@ -1772,8 +1707,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
+    <row r="40" spans="1:46">
+      <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
         <v>70</v>
       </c>
@@ -1784,8 +1719,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A41" s="2"/>
+    <row r="41" spans="1:46">
+      <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
         <v>71</v>
       </c>
@@ -1796,8 +1731,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A42" s="2"/>
+    <row r="42" spans="1:46">
+      <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
         <v>72</v>
       </c>
@@ -1826,8 +1761,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A43" s="2"/>
+    <row r="43" spans="1:46">
+      <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
         <v>73</v>
       </c>
@@ -1856,8 +1791,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A44" s="2"/>
+    <row r="44" spans="1:46">
+      <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
         <v>74</v>
       </c>
@@ -1880,8 +1815,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A45" s="2"/>
+    <row r="45" spans="1:46">
+      <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
         <v>75</v>
       </c>
@@ -1892,8 +1827,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A46" s="2"/>
+    <row r="46" spans="1:46">
+      <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
         <v>76</v>
       </c>
@@ -1922,8 +1857,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A47" s="2"/>
+    <row r="47" spans="1:46">
+      <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
         <v>77</v>
       </c>
@@ -1946,8 +1881,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A48" s="2"/>
+    <row r="48" spans="1:46">
+      <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
         <v>78</v>
       </c>
@@ -1958,8 +1893,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A49" s="2"/>
+    <row r="49" spans="1:36">
+      <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
         <v>79</v>
       </c>
@@ -1970,8 +1905,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
+    <row r="50" spans="1:36">
+      <c r="A50" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -2002,8 +1937,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A51" s="2"/>
+    <row r="51" spans="1:36">
+      <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
         <v>81</v>
       </c>
@@ -2032,8 +1967,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A52" s="2"/>
+    <row r="52" spans="1:36">
+      <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
         <v>82</v>
       </c>
@@ -2062,8 +1997,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A53" s="2"/>
+    <row r="53" spans="1:36">
+      <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
         <v>83</v>
       </c>
@@ -2092,8 +2027,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A54" s="2"/>
+    <row r="54" spans="1:36">
+      <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
         <v>84</v>
       </c>
@@ -2122,8 +2057,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A55" s="2"/>
+    <row r="55" spans="1:36">
+      <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
         <v>85</v>
       </c>
@@ -2152,8 +2087,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A56" s="2"/>
+    <row r="56" spans="1:36">
+      <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
         <v>86</v>
       </c>
@@ -2170,8 +2105,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A57" s="2"/>
+    <row r="57" spans="1:36">
+      <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
         <v>87</v>
       </c>
@@ -2182,8 +2117,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A58" s="2"/>
+    <row r="58" spans="1:36">
+      <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
         <v>88</v>
       </c>
@@ -2200,8 +2135,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
+    <row r="59" spans="1:36">
+      <c r="A59" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -2226,8 +2161,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A60" s="2"/>
+    <row r="60" spans="1:36">
+      <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
         <v>90</v>
       </c>
@@ -2250,8 +2185,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A61" s="2"/>
+    <row r="61" spans="1:36">
+      <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
         <v>91</v>
       </c>
@@ -2262,8 +2197,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A62" s="2"/>
+    <row r="62" spans="1:36">
+      <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
         <v>92</v>
       </c>
@@ -2274,8 +2209,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A63" s="2"/>
+    <row r="63" spans="1:36">
+      <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
         <v>93</v>
       </c>
@@ -2286,8 +2221,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A64" s="2"/>
+    <row r="64" spans="1:36">
+      <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
         <v>94</v>
       </c>
@@ -2310,8 +2245,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A65" s="2"/>
+    <row r="65" spans="1:41">
+      <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
         <v>95</v>
       </c>
@@ -2322,8 +2257,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A66" s="2"/>
+    <row r="66" spans="1:41">
+      <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
         <v>96</v>
       </c>
@@ -2334,8 +2269,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A67" s="2"/>
+    <row r="67" spans="1:41">
+      <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
         <v>97</v>
       </c>
@@ -2346,8 +2281,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A68" s="2"/>
+    <row r="68" spans="1:41">
+      <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
         <v>98</v>
       </c>
@@ -2358,8 +2293,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A69" s="2"/>
+    <row r="69" spans="1:41">
+      <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
         <v>99</v>
       </c>
@@ -2370,8 +2305,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A70" s="2"/>
+    <row r="70" spans="1:41">
+      <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
         <v>100</v>
       </c>
@@ -2382,8 +2317,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A71" s="2"/>
+    <row r="71" spans="1:41">
+      <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
         <v>101</v>
       </c>
@@ -2400,8 +2335,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A72" s="2"/>
+    <row r="72" spans="1:41">
+      <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
         <v>102</v>
       </c>
@@ -2430,8 +2365,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
+    <row r="73" spans="1:41">
+      <c r="A73" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -2462,8 +2397,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A74" s="2"/>
+    <row r="74" spans="1:41">
+      <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
         <v>104</v>
       </c>
@@ -2492,8 +2427,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A75" s="2"/>
+    <row r="75" spans="1:41">
+      <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
         <v>105</v>
       </c>
@@ -2522,8 +2457,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A76" s="2"/>
+    <row r="76" spans="1:41">
+      <c r="A76" s="1"/>
       <c r="B76" s="1" t="s">
         <v>106</v>
       </c>
@@ -2552,8 +2487,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A77" s="2"/>
+    <row r="77" spans="1:41">
+      <c r="A77" s="1"/>
       <c r="B77" s="1" t="s">
         <v>107</v>
       </c>
@@ -2582,8 +2517,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A78" s="2"/>
+    <row r="78" spans="1:41">
+      <c r="A78" s="1"/>
       <c r="B78" s="1" t="s">
         <v>108</v>
       </c>
@@ -2612,8 +2547,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A79" s="2"/>
+    <row r="79" spans="1:41">
+      <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
         <v>109</v>
       </c>
@@ -2636,8 +2571,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A80" s="2"/>
+    <row r="80" spans="1:41">
+      <c r="A80" s="1"/>
       <c r="B80" s="1" t="s">
         <v>110</v>
       </c>
@@ -2660,8 +2595,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A81" s="2"/>
+    <row r="81" spans="1:43">
+      <c r="A81" s="1"/>
       <c r="B81" s="1" t="s">
         <v>111</v>
       </c>
@@ -2678,8 +2613,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A82" s="2"/>
+    <row r="82" spans="1:43">
+      <c r="A82" s="1"/>
       <c r="B82" s="1" t="s">
         <v>112</v>
       </c>
@@ -2702,8 +2637,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
+    <row r="83" spans="1:43">
+      <c r="A83" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -2734,8 +2669,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A84" s="2"/>
+    <row r="84" spans="1:43">
+      <c r="A84" s="1"/>
       <c r="B84" s="1" t="s">
         <v>114</v>
       </c>
@@ -2764,8 +2699,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A85" s="2"/>
+    <row r="85" spans="1:43">
+      <c r="A85" s="1"/>
       <c r="B85" s="1" t="s">
         <v>115</v>
       </c>
@@ -2790,17 +2725,16 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A50:A58"/>
-    <mergeCell ref="A59:A72"/>
-    <mergeCell ref="A73:A82"/>
-    <mergeCell ref="A83:A85"/>
     <mergeCell ref="C1:X1"/>
     <mergeCell ref="Y1:AT1"/>
     <mergeCell ref="A4:A14"/>
     <mergeCell ref="A15:A31"/>
     <mergeCell ref="A32:A49"/>
+    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="A59:A72"/>
+    <mergeCell ref="A73:A82"/>
+    <mergeCell ref="A83:A85"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/GMLA loading analysis/PMsystem_PRweb/(Output) Project conts.xlsx
+++ b/GMLA loading analysis/PMsystem_PRweb/(Output) Project conts.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="119">
   <si>
     <t>Date</t>
   </si>
@@ -67,6 +67,9 @@
     <t>2023-06</t>
   </si>
   <si>
+    <t>2023-07</t>
+  </si>
+  <si>
     <t>2023-08</t>
   </si>
   <si>
@@ -188,6 +191,12 @@
   </si>
   <si>
     <t>LiveScope XR</t>
+  </si>
+  <si>
+    <t>Next gen GMR magnetron domes -GMR 18HD+/xHD NEXT GEN</t>
+  </si>
+  <si>
+    <t>Next gen GMR magnetron domes -GMR 24 XHD NEXT GEN</t>
   </si>
   <si>
     <t>Prop Drive Cost Down</t>
@@ -719,13 +728,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT85"/>
+  <dimension ref="A1:AV87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:48">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -751,10 +760,10 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
-      <c r="Y1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
@@ -775,8 +784,10 @@
       <c r="AR1" s="1"/>
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
-    </row>
-    <row r="2" spans="1:46">
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+    </row>
+    <row r="2" spans="1:48">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -847,98 +858,104 @@
         <v>24</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="Z2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:46">
+      <c r="AV2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:46">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="AB4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:46">
+      <c r="AC4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -949,20 +966,20 @@
       <c r="K5">
         <v>1</v>
       </c>
-      <c r="AC5">
-        <v>1</v>
-      </c>
-      <c r="AE5">
-        <v>1</v>
-      </c>
-      <c r="AG5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:46">
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -973,20 +990,20 @@
       <c r="K6">
         <v>1</v>
       </c>
-      <c r="AC6">
-        <v>1</v>
-      </c>
-      <c r="AE6">
-        <v>1</v>
-      </c>
-      <c r="AG6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:46">
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -997,20 +1014,20 @@
       <c r="K7">
         <v>1</v>
       </c>
-      <c r="AD7">
-        <v>1</v>
-      </c>
       <c r="AE7">
         <v>1</v>
       </c>
-      <c r="AG7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:46">
+      <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AH7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1024,47 +1041,47 @@
       <c r="K8">
         <v>1</v>
       </c>
-      <c r="AA8">
-        <v>1</v>
-      </c>
-      <c r="AD8">
-        <v>1</v>
-      </c>
-      <c r="AF8">
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
         <v>1</v>
       </c>
       <c r="AG8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:46">
+      <c r="AH8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S9">
-        <v>1</v>
-      </c>
-      <c r="AO9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:46">
+        <v>40</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="AQ9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
-      <c r="AB10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:46">
+      <c r="AC10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -1072,85 +1089,91 @@
       <c r="O11">
         <v>1</v>
       </c>
-      <c r="AE11">
-        <v>1</v>
-      </c>
-      <c r="AK11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:46">
+      <c r="AF11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:48">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O12">
         <v>1</v>
       </c>
-      <c r="AK12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:46">
+      <c r="AL12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="H13">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
       </c>
       <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="AA13">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <v>1</v>
       </c>
       <c r="AD13">
         <v>1</v>
       </c>
-      <c r="AF13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:46">
+      <c r="AG13">
+        <v>1</v>
+      </c>
+      <c r="AI13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="H14">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
       </c>
       <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="Y14">
-        <v>1</v>
-      </c>
-      <c r="AA14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="AB14">
         <v>1</v>
       </c>
       <c r="AD14">
         <v>1</v>
       </c>
-      <c r="AF14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:46">
+      <c r="AG14">
+        <v>1</v>
+      </c>
+      <c r="AI14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1161,20 +1184,20 @@
       <c r="H15">
         <v>1</v>
       </c>
-      <c r="Z15">
-        <v>1</v>
-      </c>
-      <c r="AB15">
-        <v>1</v>
-      </c>
-      <c r="AD15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:46">
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1185,20 +1208,20 @@
       <c r="H16">
         <v>1</v>
       </c>
-      <c r="Z16">
-        <v>1</v>
-      </c>
-      <c r="AB16">
-        <v>1</v>
-      </c>
-      <c r="AD16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:40">
+      <c r="AA16">
+        <v>1</v>
+      </c>
+      <c r="AC16">
+        <v>1</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1209,38 +1232,38 @@
       <c r="H17">
         <v>1</v>
       </c>
-      <c r="Z17">
-        <v>1</v>
-      </c>
-      <c r="AB17">
-        <v>1</v>
-      </c>
-      <c r="AD17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:40">
+      <c r="AA17">
+        <v>1</v>
+      </c>
+      <c r="AC17">
+        <v>1</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H18">
         <v>3</v>
       </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="AD18">
+      <c r="J18">
         <v>1</v>
       </c>
       <c r="AE18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:40">
+      <c r="AG18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1251,182 +1274,182 @@
       <c r="P19">
         <v>1</v>
       </c>
-      <c r="AG19">
-        <v>1</v>
-      </c>
-      <c r="AJ19">
-        <v>1</v>
-      </c>
-      <c r="AL19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:40">
+      <c r="AH19">
+        <v>1</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="Y20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:40">
+      <c r="Z20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="I21">
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="J21">
         <v>3</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
-      <c r="Z21">
-        <v>1</v>
-      </c>
-      <c r="AB21">
-        <v>1</v>
-      </c>
-      <c r="AE21">
+      <c r="AA21">
+        <v>1</v>
+      </c>
+      <c r="AD21">
         <v>1</v>
       </c>
       <c r="AG21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:40">
+      <c r="AH21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="I22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>3</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="Z22">
-        <v>1</v>
-      </c>
-      <c r="AE22">
-        <v>1</v>
-      </c>
-      <c r="AH22">
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>3</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+      <c r="AG22">
         <v>1</v>
       </c>
       <c r="AJ22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:40">
+      <c r="AL22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="I23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>3</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="Z23">
-        <v>1</v>
-      </c>
-      <c r="AE23">
-        <v>1</v>
-      </c>
-      <c r="AH23">
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <v>3</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="AA23">
+        <v>1</v>
+      </c>
+      <c r="AG23">
         <v>1</v>
       </c>
       <c r="AJ23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:40">
+      <c r="AL23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="I24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>3</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="Z24">
-        <v>1</v>
-      </c>
-      <c r="AE24">
-        <v>1</v>
-      </c>
-      <c r="AH24">
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
+      </c>
+      <c r="AG24">
         <v>1</v>
       </c>
       <c r="AJ24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:40">
+      <c r="AL24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="I25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>3</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="Z25">
-        <v>1</v>
-      </c>
-      <c r="AE25">
-        <v>1</v>
-      </c>
-      <c r="AH25">
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>3</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="AA25">
+        <v>1</v>
+      </c>
+      <c r="AG25">
         <v>1</v>
       </c>
       <c r="AJ25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:40">
+      <c r="AL25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1440,537 +1463,567 @@
       <c r="O26">
         <v>1</v>
       </c>
-      <c r="AA26">
-        <v>1</v>
-      </c>
-      <c r="AF26">
-        <v>1</v>
-      </c>
-      <c r="AI26">
-        <v>1</v>
-      </c>
-      <c r="AK26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:40">
+      <c r="AB26">
+        <v>1</v>
+      </c>
+      <c r="AG26">
+        <v>1</v>
+      </c>
+      <c r="AJ26">
+        <v>1</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="Y27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:40">
+      <c r="Z27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
       </c>
       <c r="K28">
-        <v>2</v>
-      </c>
-      <c r="O28">
-        <v>3</v>
-      </c>
-      <c r="R28">
-        <v>1</v>
-      </c>
-      <c r="AA28">
-        <v>1</v>
-      </c>
-      <c r="AG28">
-        <v>1</v>
-      </c>
-      <c r="AK28">
-        <v>1</v>
-      </c>
-      <c r="AN28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:40">
+        <v>3</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="AC28">
+        <v>1</v>
+      </c>
+      <c r="AD28">
+        <v>1</v>
+      </c>
+      <c r="AH28">
+        <v>1</v>
+      </c>
+      <c r="AJ28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29">
+        <v>60</v>
+      </c>
+      <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
         <v>2</v>
       </c>
-      <c r="J29">
-        <v>3</v>
-      </c>
       <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="Z29">
+        <v>3</v>
+      </c>
+      <c r="M29">
         <v>1</v>
       </c>
       <c r="AC29">
         <v>1</v>
       </c>
-      <c r="AF29">
-        <v>1</v>
-      </c>
-      <c r="AG29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:40">
+      <c r="AD29">
+        <v>1</v>
+      </c>
+      <c r="AH29">
+        <v>1</v>
+      </c>
+      <c r="AJ29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>2</v>
-      </c>
-      <c r="J30">
-        <v>3</v>
+        <v>61</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
       </c>
       <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="Z30">
-        <v>1</v>
-      </c>
-      <c r="AC30">
-        <v>1</v>
-      </c>
-      <c r="AF30">
-        <v>1</v>
-      </c>
-      <c r="AG30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:40">
+        <v>2</v>
+      </c>
+      <c r="O30">
+        <v>3</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="AB30">
+        <v>1</v>
+      </c>
+      <c r="AH30">
+        <v>1</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AP30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F31">
+        <v>62</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>3</v>
+      </c>
+      <c r="L31">
         <v>1</v>
       </c>
       <c r="AB31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:40">
-      <c r="A32" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="AD31">
+        <v>1</v>
+      </c>
+      <c r="AG31">
+        <v>1</v>
+      </c>
+      <c r="AI31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42">
+      <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="AA32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:46">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="AB32">
+        <v>1</v>
+      </c>
+      <c r="AD32">
+        <v>1</v>
+      </c>
+      <c r="AG32">
+        <v>1</v>
+      </c>
+      <c r="AI32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:48">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F33">
-        <v>2</v>
-      </c>
-      <c r="I33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="AB33">
-        <v>1</v>
-      </c>
-      <c r="AE33">
-        <v>1</v>
-      </c>
-      <c r="AH33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:46">
-      <c r="A34" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="AC33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:48">
+      <c r="A34" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="B34" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="AB34">
-        <v>1</v>
-      </c>
-      <c r="AD34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:46">
+        <v>3</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="AC34">
+        <v>1</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
+      </c>
+      <c r="AG34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:48">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="Y35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:46">
+        <v>66</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="AC35">
+        <v>1</v>
+      </c>
+      <c r="AF35">
+        <v>1</v>
+      </c>
+      <c r="AI35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:48">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q36">
-        <v>1</v>
-      </c>
-      <c r="W36">
-        <v>3</v>
-      </c>
-      <c r="X36">
-        <v>1</v>
-      </c>
-      <c r="AM36">
-        <v>1</v>
-      </c>
-      <c r="AS36">
-        <v>1</v>
-      </c>
-      <c r="AT36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:46">
+        <v>67</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="AC36">
+        <v>1</v>
+      </c>
+      <c r="AE36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:48">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="AG37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:46">
+        <v>68</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="Z37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:48">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="X38">
+        <v>3</v>
       </c>
       <c r="Y38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:46">
+      <c r="AO38">
+        <v>1</v>
+      </c>
+      <c r="AU38">
+        <v>1</v>
+      </c>
+      <c r="AV38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:48">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>3</v>
-      </c>
-      <c r="P39">
-        <v>1</v>
-      </c>
-      <c r="AD39">
-        <v>1</v>
-      </c>
-      <c r="AK39">
-        <v>1</v>
-      </c>
-      <c r="AL39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:46">
+        <v>70</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="AH39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:48">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40">
+        <v>71</v>
+      </c>
+      <c r="C40">
         <v>1</v>
       </c>
       <c r="Z40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:46">
+    <row r="41" spans="1:48">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="Z41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:46">
+        <v>72</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>3</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
+      </c>
+      <c r="AL41">
+        <v>1</v>
+      </c>
+      <c r="AM41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:48">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
-      <c r="H42">
-        <v>2</v>
-      </c>
-      <c r="J42">
-        <v>3</v>
-      </c>
-      <c r="M42">
-        <v>1</v>
-      </c>
       <c r="Z42">
         <v>1</v>
       </c>
-      <c r="AD42">
-        <v>1</v>
-      </c>
-      <c r="AF42">
-        <v>1</v>
-      </c>
-      <c r="AI42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:46">
+      <c r="AA42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:48">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M43">
-        <v>1</v>
-      </c>
-      <c r="R43">
-        <v>2</v>
-      </c>
-      <c r="U43">
-        <v>3</v>
-      </c>
-      <c r="V43">
-        <v>1</v>
-      </c>
-      <c r="AI43">
-        <v>1</v>
-      </c>
-      <c r="AN43">
-        <v>1</v>
-      </c>
-      <c r="AQ43">
-        <v>1</v>
-      </c>
-      <c r="AR43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:46">
+        <v>74</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="Z43">
+        <v>1</v>
+      </c>
+      <c r="AA43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:48">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D44">
-        <v>2</v>
-      </c>
-      <c r="G44">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
       </c>
       <c r="J44">
-        <v>1</v>
-      </c>
-      <c r="Z44">
-        <v>1</v>
-      </c>
-      <c r="AC44">
-        <v>1</v>
-      </c>
-      <c r="AF44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:46">
+        <v>3</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="AA44">
+        <v>1</v>
+      </c>
+      <c r="AE44">
+        <v>1</v>
+      </c>
+      <c r="AG44">
+        <v>1</v>
+      </c>
+      <c r="AJ44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:48">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="Y45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:46">
+        <v>76</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="S45">
+        <v>2</v>
+      </c>
+      <c r="V45">
+        <v>3</v>
+      </c>
+      <c r="W45">
+        <v>1</v>
+      </c>
+      <c r="AJ45">
+        <v>1</v>
+      </c>
+      <c r="AP45">
+        <v>1</v>
+      </c>
+      <c r="AS45">
+        <v>1</v>
+      </c>
+      <c r="AT45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:48">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="K46">
-        <v>2</v>
-      </c>
-      <c r="N46">
-        <v>3</v>
-      </c>
-      <c r="P46">
-        <v>1</v>
-      </c>
-      <c r="Y46">
+        <v>77</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="AA46">
+        <v>1</v>
+      </c>
+      <c r="AD46">
         <v>1</v>
       </c>
       <c r="AG46">
         <v>1</v>
       </c>
-      <c r="AJ46">
-        <v>1</v>
-      </c>
-      <c r="AL46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:46">
+    </row>
+    <row r="47" spans="1:48">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D47">
-        <v>2</v>
-      </c>
-      <c r="F47">
-        <v>3</v>
-      </c>
-      <c r="H47">
+        <v>78</v>
+      </c>
+      <c r="C47">
         <v>1</v>
       </c>
       <c r="Z47">
         <v>1</v>
       </c>
-      <c r="AB47">
-        <v>1</v>
-      </c>
-      <c r="AD47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:46">
+    </row>
+    <row r="48" spans="1:48">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I48">
-        <v>2</v>
-      </c>
-      <c r="AE48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:36">
+        <v>79</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="N48">
+        <v>3</v>
+      </c>
+      <c r="P48">
+        <v>1</v>
+      </c>
+      <c r="Z48">
+        <v>1</v>
+      </c>
+      <c r="AH48">
+        <v>1</v>
+      </c>
+      <c r="AK48">
+        <v>1</v>
+      </c>
+      <c r="AM48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:37">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E49">
+        <v>80</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="Z49">
         <v>1</v>
       </c>
       <c r="AA49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:36">
-      <c r="A50" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="AD49">
+        <v>1</v>
+      </c>
+      <c r="AE49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:37">
+      <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="H50">
-        <v>2</v>
-      </c>
-      <c r="J50">
-        <v>3</v>
-      </c>
-      <c r="M50">
-        <v>1</v>
-      </c>
-      <c r="Z50">
-        <v>1</v>
-      </c>
-      <c r="AD50">
-        <v>1</v>
+        <v>81</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
       </c>
       <c r="AF50">
         <v>1</v>
       </c>
-      <c r="AI50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:36">
+    </row>
+    <row r="51" spans="1:37">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>2</v>
-      </c>
-      <c r="J51">
-        <v>3</v>
-      </c>
-      <c r="M51">
-        <v>1</v>
-      </c>
-      <c r="Z51">
-        <v>1</v>
-      </c>
-      <c r="AD51">
-        <v>1</v>
-      </c>
-      <c r="AF51">
-        <v>1</v>
-      </c>
-      <c r="AI51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:36">
-      <c r="A52" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="AB51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:37">
+      <c r="A52" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="B52" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -1984,70 +2037,67 @@
       <c r="M52">
         <v>1</v>
       </c>
-      <c r="Z52">
-        <v>1</v>
-      </c>
-      <c r="AD52">
-        <v>1</v>
-      </c>
-      <c r="AF52">
-        <v>1</v>
-      </c>
-      <c r="AI52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:36">
+      <c r="AA52">
+        <v>1</v>
+      </c>
+      <c r="AE52">
+        <v>1</v>
+      </c>
+      <c r="AG52">
+        <v>1</v>
+      </c>
+      <c r="AJ52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:37">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53">
+        <v>84</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="H53">
         <v>2</v>
       </c>
       <c r="J53">
         <v>3</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>1</v>
       </c>
       <c r="AA53">
         <v>1</v>
       </c>
-      <c r="AB53">
-        <v>1</v>
-      </c>
-      <c r="AF53">
-        <v>1</v>
-      </c>
-      <c r="AH53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:36">
+      <c r="AE53">
+        <v>1</v>
+      </c>
+      <c r="AG53">
+        <v>1</v>
+      </c>
+      <c r="AJ53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:37">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
-      <c r="F54">
-        <v>2</v>
-      </c>
-      <c r="I54">
-        <v>3</v>
-      </c>
-      <c r="K54">
-        <v>1</v>
-      </c>
-      <c r="Z54">
-        <v>1</v>
-      </c>
-      <c r="AB54">
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="J54">
+        <v>3</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="AA54">
         <v>1</v>
       </c>
       <c r="AE54">
@@ -2056,28 +2106,31 @@
       <c r="AG54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:36">
+      <c r="AJ54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:37">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-      <c r="I55">
-        <v>2</v>
-      </c>
-      <c r="K55">
-        <v>3</v>
-      </c>
-      <c r="M55">
-        <v>1</v>
-      </c>
-      <c r="AD55">
-        <v>1</v>
-      </c>
-      <c r="AE55">
+        <v>86</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="J55">
+        <v>3</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="AB55">
+        <v>1</v>
+      </c>
+      <c r="AC55">
         <v>1</v>
       </c>
       <c r="AG55">
@@ -2087,15 +2140,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:37">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F56">
-        <v>3</v>
-      </c>
-      <c r="H56">
+        <v>87</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="J56">
+        <v>3</v>
+      </c>
+      <c r="L56">
         <v>1</v>
       </c>
       <c r="AB56">
@@ -2104,488 +2163,482 @@
       <c r="AD56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:36">
+      <c r="AG56">
+        <v>1</v>
+      </c>
+      <c r="AI56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:37">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="AA57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:36">
+        <v>88</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="K57">
+        <v>3</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="AE57">
+        <v>1</v>
+      </c>
+      <c r="AF57">
+        <v>1</v>
+      </c>
+      <c r="AH57">
+        <v>1</v>
+      </c>
+      <c r="AJ57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:37">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D58">
-        <v>2</v>
+        <v>89</v>
+      </c>
+      <c r="F58">
+        <v>3</v>
       </c>
       <c r="H58">
         <v>1</v>
       </c>
-      <c r="Z58">
-        <v>1</v>
-      </c>
-      <c r="AD58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:36">
-      <c r="A59" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="AC58">
+        <v>1</v>
+      </c>
+      <c r="AE58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:37">
+      <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D59">
-        <v>2</v>
-      </c>
-      <c r="L59">
-        <v>3</v>
-      </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="Z59">
-        <v>1</v>
-      </c>
-      <c r="AH59">
-        <v>1</v>
-      </c>
-      <c r="AJ59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:36">
+        <v>90</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="AB59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:37">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D60">
         <v>2</v>
       </c>
-      <c r="L60">
-        <v>3</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="Z60">
-        <v>1</v>
-      </c>
-      <c r="AH60">
-        <v>1</v>
-      </c>
-      <c r="AJ60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:36">
-      <c r="A61" s="1"/>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="AA60">
+        <v>1</v>
+      </c>
+      <c r="AE60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:37">
+      <c r="A61" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="B61" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="Z61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:36">
+        <v>2</v>
+      </c>
+      <c r="L61">
+        <v>3</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="AA61">
+        <v>1</v>
+      </c>
+      <c r="AI61">
+        <v>1</v>
+      </c>
+      <c r="AK61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:37">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="Z62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:36">
+        <v>2</v>
+      </c>
+      <c r="L62">
+        <v>3</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="AA62">
+        <v>1</v>
+      </c>
+      <c r="AI62">
+        <v>1</v>
+      </c>
+      <c r="AK62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:37">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
-      <c r="Z63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:36">
+      <c r="AA63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:37">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-      <c r="K64">
-        <v>3</v>
-      </c>
-      <c r="M64">
-        <v>1</v>
-      </c>
-      <c r="AB64">
-        <v>1</v>
-      </c>
-      <c r="AG64">
-        <v>1</v>
-      </c>
-      <c r="AI64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:41">
+        <v>95</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="AA64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:43">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I65">
-        <v>1</v>
-      </c>
-      <c r="AE65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:41">
+        <v>96</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="AA65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:43">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="Z66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:41">
+        <v>97</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>3</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="AC66">
+        <v>1</v>
+      </c>
+      <c r="AH66">
+        <v>1</v>
+      </c>
+      <c r="AJ66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:43">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="Y67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:41">
+        <v>98</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="AF67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:43">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="Y68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:41">
+        <v>99</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="AA68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:43">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
-      <c r="Y69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:41">
+      <c r="Z69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:43">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
-      <c r="Y70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:41">
+      <c r="Z70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:43">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C71">
-        <v>3</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="Y71">
         <v>1</v>
       </c>
       <c r="Z71">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:41">
+    <row r="72" spans="1:43">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
-      <c r="F72">
-        <v>2</v>
-      </c>
-      <c r="I72">
-        <v>3</v>
-      </c>
-      <c r="K72">
-        <v>1</v>
-      </c>
-      <c r="Y72">
-        <v>1</v>
-      </c>
-      <c r="AB72">
-        <v>1</v>
-      </c>
-      <c r="AE72">
-        <v>1</v>
-      </c>
-      <c r="AG72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:41">
-      <c r="A73" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="Z72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:43">
+      <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
-      <c r="H73">
-        <v>2</v>
-      </c>
-      <c r="K73">
-        <v>3</v>
-      </c>
-      <c r="M73">
+        <v>104</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="Z73">
         <v>1</v>
       </c>
       <c r="AA73">
         <v>1</v>
       </c>
-      <c r="AD73">
-        <v>1</v>
-      </c>
-      <c r="AG73">
-        <v>1</v>
-      </c>
-      <c r="AI73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:41">
+    </row>
+    <row r="74" spans="1:43">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
-      <c r="H74">
-        <v>2</v>
+        <v>105</v>
+      </c>
+      <c r="F74">
+        <v>3</v>
+      </c>
+      <c r="I74">
+        <v>3</v>
       </c>
       <c r="K74">
-        <v>3</v>
-      </c>
-      <c r="M74">
-        <v>1</v>
-      </c>
-      <c r="AA74">
-        <v>1</v>
-      </c>
-      <c r="AD74">
-        <v>1</v>
-      </c>
-      <c r="AG74">
-        <v>1</v>
-      </c>
-      <c r="AI74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:41">
-      <c r="A75" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="AC74">
+        <v>2</v>
+      </c>
+      <c r="AF74">
+        <v>1</v>
+      </c>
+      <c r="AH74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:43">
+      <c r="A75" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B75" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J75">
-        <v>1</v>
-      </c>
-      <c r="O75">
-        <v>2</v>
-      </c>
-      <c r="Q75">
-        <v>3</v>
-      </c>
-      <c r="S75">
-        <v>1</v>
-      </c>
-      <c r="AF75">
-        <v>1</v>
-      </c>
-      <c r="AK75">
-        <v>1</v>
-      </c>
-      <c r="AM75">
-        <v>1</v>
-      </c>
-      <c r="AO75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:41">
+        <v>106</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>2</v>
+      </c>
+      <c r="K75">
+        <v>3</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="AB75">
+        <v>1</v>
+      </c>
+      <c r="AE75">
+        <v>1</v>
+      </c>
+      <c r="AH75">
+        <v>1</v>
+      </c>
+      <c r="AJ75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:43">
       <c r="A76" s="1"/>
       <c r="B76" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J76">
-        <v>1</v>
-      </c>
-      <c r="O76">
-        <v>2</v>
-      </c>
-      <c r="Q76">
-        <v>3</v>
-      </c>
-      <c r="S76">
-        <v>1</v>
-      </c>
-      <c r="AF76">
-        <v>1</v>
-      </c>
-      <c r="AK76">
-        <v>1</v>
-      </c>
-      <c r="AM76">
-        <v>1</v>
-      </c>
-      <c r="AO76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:41">
+        <v>107</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>2</v>
+      </c>
+      <c r="K76">
+        <v>3</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="AB76">
+        <v>1</v>
+      </c>
+      <c r="AE76">
+        <v>1</v>
+      </c>
+      <c r="AH76">
+        <v>1</v>
+      </c>
+      <c r="AJ76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:43">
       <c r="A77" s="1"/>
       <c r="B77" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="F77">
-        <v>2</v>
-      </c>
-      <c r="I77">
-        <v>3</v>
-      </c>
-      <c r="K77">
-        <v>1</v>
-      </c>
-      <c r="Z77">
-        <v>1</v>
-      </c>
-      <c r="AB77">
-        <v>1</v>
-      </c>
-      <c r="AE77">
+        <v>108</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>2</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="T77">
         <v>1</v>
       </c>
       <c r="AG77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:41">
+      <c r="AL77">
+        <v>1</v>
+      </c>
+      <c r="AO77">
+        <v>1</v>
+      </c>
+      <c r="AQ77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:43">
       <c r="A78" s="1"/>
       <c r="B78" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-      <c r="G78">
-        <v>2</v>
-      </c>
-      <c r="J78">
-        <v>3</v>
-      </c>
-      <c r="L78">
-        <v>1</v>
-      </c>
-      <c r="AA78">
-        <v>1</v>
-      </c>
-      <c r="AC78">
+        <v>109</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>2</v>
+      </c>
+      <c r="Q78">
+        <v>3</v>
+      </c>
+      <c r="S78">
         <v>1</v>
       </c>
       <c r="AF78">
         <v>1</v>
       </c>
-      <c r="AH78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:41">
+      <c r="AK78">
+        <v>1</v>
+      </c>
+      <c r="AN78">
+        <v>1</v>
+      </c>
+      <c r="AP78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:43">
       <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>2</v>
       </c>
       <c r="J79">
-        <v>1</v>
-      </c>
-      <c r="P79">
-        <v>3</v>
-      </c>
-      <c r="Q79">
-        <v>1</v>
-      </c>
-      <c r="AF79">
-        <v>1</v>
-      </c>
-      <c r="AL79">
-        <v>1</v>
-      </c>
-      <c r="AM79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:41">
+        <v>3</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="AB79">
+        <v>1</v>
+      </c>
+      <c r="AD79">
+        <v>1</v>
+      </c>
+      <c r="AG79">
+        <v>1</v>
+      </c>
+      <c r="AI79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:43">
       <c r="A80" s="1"/>
       <c r="B80" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D80">
-        <v>2</v>
-      </c>
-      <c r="F80">
-        <v>3</v>
-      </c>
-      <c r="H80">
-        <v>1</v>
-      </c>
-      <c r="Z80">
+        <v>111</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>2</v>
+      </c>
+      <c r="J80">
+        <v>3</v>
+      </c>
+      <c r="L80">
         <v>1</v>
       </c>
       <c r="AB80">
@@ -2594,146 +2647,206 @@
       <c r="AD80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:43">
+      <c r="AG80">
+        <v>1</v>
+      </c>
+      <c r="AI80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:45">
       <c r="A81" s="1"/>
       <c r="B81" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J81">
-        <v>2</v>
-      </c>
-      <c r="O81">
-        <v>1</v>
-      </c>
-      <c r="AF81">
-        <v>1</v>
-      </c>
-      <c r="AK81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:43">
+        <v>1</v>
+      </c>
+      <c r="P81">
+        <v>3</v>
+      </c>
+      <c r="R81">
+        <v>1</v>
+      </c>
+      <c r="AG81">
+        <v>1</v>
+      </c>
+      <c r="AM81">
+        <v>1</v>
+      </c>
+      <c r="AO81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:45">
       <c r="A82" s="1"/>
       <c r="B82" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E82">
+        <v>113</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="F82">
         <v>3</v>
       </c>
       <c r="H82">
-        <v>3</v>
-      </c>
-      <c r="J82">
         <v>1</v>
       </c>
       <c r="AA82">
-        <v>2</v>
-      </c>
-      <c r="AD82">
-        <v>1</v>
-      </c>
-      <c r="AF82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:43">
-      <c r="A83" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AC82">
+        <v>1</v>
+      </c>
+      <c r="AE82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:45">
+      <c r="A83" s="1"/>
       <c r="B83" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="I83">
-        <v>2</v>
-      </c>
-      <c r="L83">
-        <v>3</v>
-      </c>
-      <c r="N83">
-        <v>1</v>
-      </c>
-      <c r="Z83">
-        <v>1</v>
-      </c>
-      <c r="AE83">
-        <v>1</v>
-      </c>
-      <c r="AH83">
-        <v>1</v>
-      </c>
-      <c r="AJ83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:43">
+        <v>114</v>
+      </c>
+      <c r="J83">
+        <v>2</v>
+      </c>
+      <c r="O83">
+        <v>1</v>
+      </c>
+      <c r="AG83">
+        <v>1</v>
+      </c>
+      <c r="AL83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:45">
       <c r="A84" s="1"/>
       <c r="B84" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="M84">
-        <v>1</v>
-      </c>
-      <c r="Q84">
-        <v>2</v>
-      </c>
-      <c r="T84">
-        <v>3</v>
-      </c>
-      <c r="U84">
+        <v>115</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>2</v>
+      </c>
+      <c r="J84">
+        <v>3</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="AB84">
+        <v>1</v>
+      </c>
+      <c r="AD84">
+        <v>1</v>
+      </c>
+      <c r="AG84">
         <v>1</v>
       </c>
       <c r="AI84">
         <v>1</v>
       </c>
-      <c r="AM84">
-        <v>1</v>
-      </c>
-      <c r="AP84">
-        <v>1</v>
-      </c>
-      <c r="AQ84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:43">
-      <c r="A85" s="1"/>
+    </row>
+    <row r="85" spans="1:45">
+      <c r="A85" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B85" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H85">
-        <v>2</v>
-      </c>
-      <c r="K85">
-        <v>3</v>
+        <v>116</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>2</v>
       </c>
       <c r="M85">
-        <v>1</v>
-      </c>
-      <c r="AD85">
+        <v>3</v>
+      </c>
+      <c r="O85">
+        <v>1</v>
+      </c>
+      <c r="AA85">
         <v>1</v>
       </c>
       <c r="AG85">
         <v>1</v>
       </c>
-      <c r="AI85">
+      <c r="AJ85">
+        <v>1</v>
+      </c>
+      <c r="AL85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:45">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="R86">
+        <v>2</v>
+      </c>
+      <c r="U86">
+        <v>3</v>
+      </c>
+      <c r="V86">
+        <v>1</v>
+      </c>
+      <c r="AJ86">
+        <v>1</v>
+      </c>
+      <c r="AO86">
+        <v>1</v>
+      </c>
+      <c r="AR86">
+        <v>1</v>
+      </c>
+      <c r="AS86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:45">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H87">
+        <v>2</v>
+      </c>
+      <c r="K87">
+        <v>3</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="AE87">
+        <v>1</v>
+      </c>
+      <c r="AH87">
+        <v>1</v>
+      </c>
+      <c r="AJ87">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="C1:X1"/>
-    <mergeCell ref="Y1:AT1"/>
+    <mergeCell ref="C1:Y1"/>
+    <mergeCell ref="Z1:AV1"/>
     <mergeCell ref="A4:A14"/>
-    <mergeCell ref="A15:A31"/>
-    <mergeCell ref="A32:A49"/>
-    <mergeCell ref="A50:A58"/>
-    <mergeCell ref="A59:A72"/>
-    <mergeCell ref="A73:A82"/>
-    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A15:A33"/>
+    <mergeCell ref="A34:A51"/>
+    <mergeCell ref="A52:A60"/>
+    <mergeCell ref="A61:A74"/>
+    <mergeCell ref="A75:A84"/>
+    <mergeCell ref="A85:A87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GMLA loading analysis/PMsystem_PRweb/(Output) Project conts.xlsx
+++ b/GMLA loading analysis/PMsystem_PRweb/(Output) Project conts.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="117">
   <si>
     <t>Date</t>
   </si>
@@ -130,156 +130,150 @@
     <t>Forerunner 265s</t>
   </si>
   <si>
+    <t>Foretrex 801/901</t>
+  </si>
+  <si>
+    <t>Lily 2</t>
+  </si>
+  <si>
+    <t>MARQ Carbon</t>
+  </si>
+  <si>
+    <t>Venu 3S</t>
+  </si>
+  <si>
+    <t>Venu Sq 2 Plus</t>
+  </si>
+  <si>
+    <t>fenix 7 Pro</t>
+  </si>
+  <si>
+    <t>fenix 7X Pro</t>
+  </si>
+  <si>
+    <t>ECHOMAP UHD2 (Touch) 6"</t>
+  </si>
+  <si>
+    <t>ECHOMAP UHD2 (Touch) 7"</t>
+  </si>
+  <si>
+    <t>ECHOMAP UHD2 (Touch) 9"</t>
+  </si>
+  <si>
+    <t>FUSION - WB675 Hide Away Stereo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Force Kraken Trolling Motor </t>
+  </si>
+  <si>
+    <t>GMR xHD3 Magnetron Open Arrays</t>
+  </si>
+  <si>
+    <t>GPSMAP 9000 - 22"</t>
+  </si>
+  <si>
+    <t>GPSMAP 9000 - 24"</t>
+  </si>
+  <si>
+    <t>GPSMAP 9000 -27"</t>
+  </si>
+  <si>
+    <t>GPSMAP 9000_Black Box</t>
+  </si>
+  <si>
+    <t>GSD28</t>
+  </si>
+  <si>
+    <t>Next gen GMR magnetron domes -GMR 18HD+/xHD NEXT GEN</t>
+  </si>
+  <si>
+    <t>Next gen GMR magnetron domes -GMR 24 XHD NEXT GEN</t>
+  </si>
+  <si>
+    <t>Prop Drive Cost Down</t>
+  </si>
+  <si>
+    <t>RV Fixed Displays - 10"</t>
+  </si>
+  <si>
+    <t>RV Fixed Displays - 7"</t>
+  </si>
+  <si>
+    <t>Tread - XL (10")</t>
+  </si>
+  <si>
+    <t>Alpha Dog Collar</t>
+  </si>
+  <si>
+    <t>Approach Z50</t>
+  </si>
+  <si>
+    <t>Dash Cam Live (LTE)</t>
+  </si>
+  <si>
+    <t>Delta Simple</t>
+  </si>
+  <si>
+    <t>Descent X1i</t>
+  </si>
+  <si>
+    <t>Edge 540 840</t>
+  </si>
+  <si>
+    <t>Edge Explore 2</t>
+  </si>
+  <si>
+    <t>Tacx NEO 3M</t>
+  </si>
+  <si>
+    <t>Tacx NEO Bike Plus</t>
+  </si>
+  <si>
+    <t>Tacx NEO Bike Plus_Shifter</t>
+  </si>
+  <si>
+    <t>Varia eBike Radar Tail Light (eRTL615)</t>
+  </si>
+  <si>
+    <t>Xero B60i Laser Navigation Binoculars</t>
+  </si>
+  <si>
+    <t>Xero C1 Chronograph</t>
+  </si>
+  <si>
+    <t>Xero G1(s) SatCom Scouting Camera</t>
+  </si>
+  <si>
+    <t>Xero L60i Laser Navigator</t>
+  </si>
+  <si>
+    <t>eTrex SE</t>
+  </si>
+  <si>
+    <t>eTrex Solar</t>
+  </si>
+  <si>
+    <t>inReach Messenger</t>
+  </si>
+  <si>
+    <t>Catalyst KMR - Camera</t>
+  </si>
+  <si>
+    <t>Catalyst KMR - Display</t>
+  </si>
+  <si>
+    <t>Catalyst KMR - Hub</t>
+  </si>
+  <si>
+    <t>Descent S1 Buoy</t>
+  </si>
+  <si>
+    <t>EPIX PRO (Gen 2) 42mm</t>
+  </si>
+  <si>
     <t>Forerunner 965</t>
   </si>
   <si>
-    <t>Foretrex 801/901</t>
-  </si>
-  <si>
-    <t>Lily 2</t>
-  </si>
-  <si>
-    <t>MARQ Carbon</t>
-  </si>
-  <si>
-    <t>Venu 3S</t>
-  </si>
-  <si>
-    <t>Venu Sq 2 Plus</t>
-  </si>
-  <si>
-    <t>fenix 7 Pro</t>
-  </si>
-  <si>
-    <t>fenix 7X Pro</t>
-  </si>
-  <si>
-    <t>ECHOMAP UHD2 (Touch) 6"</t>
-  </si>
-  <si>
-    <t>ECHOMAP UHD2 (Touch) 7"</t>
-  </si>
-  <si>
-    <t>ECHOMAP UHD2 (Touch) 9"</t>
-  </si>
-  <si>
-    <t>FUSION - WB675 Hide Away Stereo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Force Kraken Trolling Motor </t>
-  </si>
-  <si>
-    <t>GHC 50</t>
-  </si>
-  <si>
-    <t>GMR xHD3 Magnetron Open Arrays</t>
-  </si>
-  <si>
-    <t>GPSMAP 9000 - 22"</t>
-  </si>
-  <si>
-    <t>GPSMAP 9000 - 24"</t>
-  </si>
-  <si>
-    <t>GPSMAP 9000 -27"</t>
-  </si>
-  <si>
-    <t>GPSMAP 9000_Black Box</t>
-  </si>
-  <si>
-    <t>GSD28</t>
-  </si>
-  <si>
-    <t>LiveScope XR</t>
-  </si>
-  <si>
-    <t>Next gen GMR magnetron domes -GMR 18HD+/xHD NEXT GEN</t>
-  </si>
-  <si>
-    <t>Next gen GMR magnetron domes -GMR 24 XHD NEXT GEN</t>
-  </si>
-  <si>
-    <t>Prop Drive Cost Down</t>
-  </si>
-  <si>
-    <t>RV Fixed Displays - 10"</t>
-  </si>
-  <si>
-    <t>RV Fixed Displays - 7"</t>
-  </si>
-  <si>
-    <t>Tread - XL (10")</t>
-  </si>
-  <si>
-    <t>Alpha Dog Collar</t>
-  </si>
-  <si>
-    <t>Approach Z50</t>
-  </si>
-  <si>
-    <t>Dash Cam Live (LTE)</t>
-  </si>
-  <si>
-    <t>Delta Simple</t>
-  </si>
-  <si>
-    <t>Descent X1i</t>
-  </si>
-  <si>
-    <t>Edge 540 840</t>
-  </si>
-  <si>
-    <t>Edge Explore 2</t>
-  </si>
-  <si>
-    <t>Tacx NEO 3M</t>
-  </si>
-  <si>
-    <t>Tacx NEO Bike Plus</t>
-  </si>
-  <si>
-    <t>Tacx NEO Bike Plus_Shifter</t>
-  </si>
-  <si>
-    <t>Varia eBike Radar Tail Light (eRTL615)</t>
-  </si>
-  <si>
-    <t>Xero B60i Laser Navigation Binoculars</t>
-  </si>
-  <si>
-    <t>Xero C1 Chronograph</t>
-  </si>
-  <si>
-    <t>Xero G1(s) SatCom Scouting Camera</t>
-  </si>
-  <si>
-    <t>Xero L60i Laser Navigator</t>
-  </si>
-  <si>
-    <t>eTrex SE</t>
-  </si>
-  <si>
-    <t>eTrex Solar</t>
-  </si>
-  <si>
-    <t>inReach Messenger</t>
-  </si>
-  <si>
-    <t>Catalyst KMR - Camera</t>
-  </si>
-  <si>
-    <t>Catalyst KMR - Display</t>
-  </si>
-  <si>
-    <t>Catalyst KMR - Hub</t>
-  </si>
-  <si>
-    <t>Descent S1 Buoy</t>
-  </si>
-  <si>
-    <t>EPIX PRO (Gen 2) 42mm</t>
-  </si>
-  <si>
     <t>Instinct 2X Solar</t>
   </si>
   <si>
@@ -298,6 +292,9 @@
     <t>BlueNET Switch</t>
   </si>
   <si>
+    <t>Premium Dash Cams</t>
+  </si>
+  <si>
     <t>RV/Camper 2022 - 7"</t>
   </si>
   <si>
@@ -350,9 +347,6 @@
   </si>
   <si>
     <t>EPIX PRO (Gen 2) 51mm</t>
-  </si>
-  <si>
-    <t>Enduro 2023</t>
   </si>
   <si>
     <t>Marq (Gen 2)</t>
@@ -728,7 +722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV87"/>
+  <dimension ref="A1:AV85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1005,22 +999,28 @@
       <c r="B7" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
       <c r="H7">
         <v>2</v>
       </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
-      <c r="K7">
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
         <v>1</v>
       </c>
       <c r="AE7">
         <v>1</v>
       </c>
-      <c r="AF7">
-        <v>1</v>
-      </c>
-      <c r="AH7">
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AI7">
         <v>1</v>
       </c>
     </row>
@@ -1029,28 +1029,10 @@
       <c r="B8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="J8">
-        <v>3</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="AB8">
-        <v>1</v>
-      </c>
-      <c r="AE8">
-        <v>1</v>
-      </c>
-      <c r="AG8">
-        <v>1</v>
-      </c>
-      <c r="AH8">
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="AQ8">
         <v>1</v>
       </c>
     </row>
@@ -1059,10 +1041,10 @@
       <c r="B9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T9">
-        <v>1</v>
-      </c>
-      <c r="AQ9">
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="AC9">
         <v>1</v>
       </c>
     </row>
@@ -1071,10 +1053,16 @@
       <c r="B10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="AC10">
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="AF10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
         <v>1</v>
       </c>
     </row>
@@ -1083,13 +1071,7 @@
       <c r="B11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
       <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="AF11">
         <v>1</v>
       </c>
       <c r="AL11">
@@ -1101,10 +1083,28 @@
       <c r="B12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="AL12">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <v>1</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AG12">
+        <v>1</v>
+      </c>
+      <c r="AI12">
         <v>1</v>
       </c>
     </row>
@@ -1139,39 +1139,33 @@
       </c>
     </row>
     <row r="14" spans="1:48">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="J14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="AB14">
-        <v>1</v>
-      </c>
-      <c r="AD14">
-        <v>1</v>
-      </c>
-      <c r="AG14">
-        <v>1</v>
-      </c>
-      <c r="AI14">
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
+      </c>
+      <c r="AC14">
+        <v>1</v>
+      </c>
+      <c r="AE14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:48">
-      <c r="A15" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>46</v>
       </c>
@@ -1223,22 +1217,16 @@
       <c r="B17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>3</v>
-      </c>
       <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="AA17">
-        <v>1</v>
-      </c>
-      <c r="AC17">
+        <v>3</v>
+      </c>
+      <c r="J17">
         <v>1</v>
       </c>
       <c r="AE17">
+        <v>1</v>
+      </c>
+      <c r="AG17">
         <v>1</v>
       </c>
     </row>
@@ -1247,16 +1235,22 @@
       <c r="B18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H18">
-        <v>3</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="AE18">
-        <v>1</v>
-      </c>
-      <c r="AG18">
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="AH18">
+        <v>1</v>
+      </c>
+      <c r="AK18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
         <v>1</v>
       </c>
     </row>
@@ -1265,22 +1259,28 @@
       <c r="B19" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
       <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="N19">
-        <v>3</v>
-      </c>
-      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AG19">
         <v>1</v>
       </c>
       <c r="AH19">
-        <v>1</v>
-      </c>
-      <c r="AK19">
-        <v>1</v>
-      </c>
-      <c r="AM19">
         <v>1</v>
       </c>
     </row>
@@ -1289,10 +1289,28 @@
       <c r="B20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="Z20">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <v>1</v>
+      </c>
+      <c r="AG20">
+        <v>1</v>
+      </c>
+      <c r="AK20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
         <v>1</v>
       </c>
     </row>
@@ -1304,25 +1322,25 @@
       <c r="D21">
         <v>1</v>
       </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
       <c r="J21">
-        <v>3</v>
-      </c>
-      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+      <c r="P21">
         <v>1</v>
       </c>
       <c r="AA21">
         <v>1</v>
       </c>
-      <c r="AD21">
-        <v>1</v>
-      </c>
       <c r="AG21">
         <v>1</v>
       </c>
-      <c r="AH21">
+      <c r="AK21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
         <v>1</v>
       </c>
     </row>
@@ -1337,10 +1355,10 @@
       <c r="J22">
         <v>2</v>
       </c>
-      <c r="M22">
-        <v>3</v>
-      </c>
-      <c r="O22">
+      <c r="N22">
+        <v>3</v>
+      </c>
+      <c r="P22">
         <v>1</v>
       </c>
       <c r="AA22">
@@ -1349,10 +1367,10 @@
       <c r="AG22">
         <v>1</v>
       </c>
-      <c r="AJ22">
-        <v>1</v>
-      </c>
-      <c r="AL22">
+      <c r="AK22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
         <v>1</v>
       </c>
     </row>
@@ -1367,10 +1385,10 @@
       <c r="J23">
         <v>2</v>
       </c>
-      <c r="M23">
-        <v>3</v>
-      </c>
-      <c r="O23">
+      <c r="N23">
+        <v>3</v>
+      </c>
+      <c r="P23">
         <v>1</v>
       </c>
       <c r="AA23">
@@ -1379,10 +1397,10 @@
       <c r="AG23">
         <v>1</v>
       </c>
-      <c r="AJ23">
-        <v>1</v>
-      </c>
-      <c r="AL23">
+      <c r="AK23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
         <v>1</v>
       </c>
     </row>
@@ -1391,7 +1409,7 @@
       <c r="B24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>1</v>
       </c>
       <c r="J24">
@@ -1403,7 +1421,7 @@
       <c r="O24">
         <v>1</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>1</v>
       </c>
       <c r="AG24">
@@ -1421,28 +1439,28 @@
       <c r="B25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>2</v>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
       </c>
       <c r="M25">
-        <v>3</v>
-      </c>
-      <c r="O25">
-        <v>1</v>
-      </c>
-      <c r="AA25">
-        <v>1</v>
-      </c>
-      <c r="AG25">
+        <v>1</v>
+      </c>
+      <c r="AC25">
+        <v>1</v>
+      </c>
+      <c r="AD25">
+        <v>1</v>
+      </c>
+      <c r="AH25">
         <v>1</v>
       </c>
       <c r="AJ25">
-        <v>1</v>
-      </c>
-      <c r="AL25">
         <v>1</v>
       </c>
     </row>
@@ -1451,28 +1469,28 @@
       <c r="B26" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>2</v>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
       </c>
       <c r="M26">
-        <v>3</v>
-      </c>
-      <c r="O26">
-        <v>1</v>
-      </c>
-      <c r="AB26">
-        <v>1</v>
-      </c>
-      <c r="AG26">
+        <v>1</v>
+      </c>
+      <c r="AC26">
+        <v>1</v>
+      </c>
+      <c r="AD26">
+        <v>1</v>
+      </c>
+      <c r="AH26">
         <v>1</v>
       </c>
       <c r="AJ26">
-        <v>1</v>
-      </c>
-      <c r="AL26">
         <v>1</v>
       </c>
     </row>
@@ -1481,10 +1499,28 @@
       <c r="B27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="Z27">
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="O27">
+        <v>3</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="AB27">
+        <v>1</v>
+      </c>
+      <c r="AH27">
+        <v>1</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AP27">
         <v>1</v>
       </c>
     </row>
@@ -1493,28 +1529,28 @@
       <c r="B28" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F28">
+      <c r="E28">
         <v>1</v>
       </c>
       <c r="G28">
         <v>2</v>
       </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
-      <c r="AC28">
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="AB28">
         <v>1</v>
       </c>
       <c r="AD28">
         <v>1</v>
       </c>
-      <c r="AH28">
-        <v>1</v>
-      </c>
-      <c r="AJ28">
+      <c r="AG28">
+        <v>1</v>
+      </c>
+      <c r="AI28">
         <v>1</v>
       </c>
     </row>
@@ -1523,28 +1559,28 @@
       <c r="B29" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F29">
+      <c r="E29">
         <v>1</v>
       </c>
       <c r="G29">
         <v>2</v>
       </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-      <c r="M29">
-        <v>1</v>
-      </c>
-      <c r="AC29">
+      <c r="J29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="AB29">
         <v>1</v>
       </c>
       <c r="AD29">
         <v>1</v>
       </c>
-      <c r="AH29">
-        <v>1</v>
-      </c>
-      <c r="AJ29">
+      <c r="AG29">
+        <v>1</v>
+      </c>
+      <c r="AI29">
         <v>1</v>
       </c>
     </row>
@@ -1553,58 +1589,36 @@
       <c r="B30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="K30">
-        <v>2</v>
-      </c>
-      <c r="O30">
-        <v>3</v>
-      </c>
-      <c r="S30">
-        <v>1</v>
-      </c>
-      <c r="AB30">
-        <v>1</v>
-      </c>
-      <c r="AH30">
-        <v>1</v>
-      </c>
-      <c r="AL30">
-        <v>1</v>
-      </c>
-      <c r="AP30">
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="AC30">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:42">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="B31" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>2</v>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
       </c>
       <c r="J31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="AB31">
-        <v>1</v>
-      </c>
-      <c r="AD31">
+        <v>1</v>
+      </c>
+      <c r="AC31">
+        <v>1</v>
+      </c>
+      <c r="AE31">
         <v>1</v>
       </c>
       <c r="AG31">
-        <v>1</v>
-      </c>
-      <c r="AI31">
         <v>1</v>
       </c>
     </row>
@@ -1613,25 +1627,19 @@
       <c r="B32" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>2</v>
-      </c>
-      <c r="J32">
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="I32">
         <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
-      <c r="AB32">
-        <v>1</v>
-      </c>
-      <c r="AD32">
-        <v>1</v>
-      </c>
-      <c r="AG32">
+      <c r="AC32">
+        <v>1</v>
+      </c>
+      <c r="AF32">
         <v>1</v>
       </c>
       <c r="AI32">
@@ -1644,35 +1652,27 @@
         <v>64</v>
       </c>
       <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="H33">
         <v>1</v>
       </c>
       <c r="AC33">
         <v>1</v>
       </c>
+      <c r="AE33">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:48">
-      <c r="A34" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F34">
-        <v>2</v>
-      </c>
-      <c r="H34">
-        <v>3</v>
-      </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="AC34">
-        <v>1</v>
-      </c>
-      <c r="AE34">
-        <v>1</v>
-      </c>
-      <c r="AG34">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="Z34">
         <v>1</v>
       </c>
     </row>
@@ -1681,22 +1681,22 @@
       <c r="B35" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F35">
-        <v>2</v>
-      </c>
-      <c r="I35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="AC35">
-        <v>1</v>
-      </c>
-      <c r="AF35">
-        <v>1</v>
-      </c>
-      <c r="AI35">
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="X35">
+        <v>3</v>
+      </c>
+      <c r="Y35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
+        <v>1</v>
+      </c>
+      <c r="AU35">
+        <v>1</v>
+      </c>
+      <c r="AV35">
         <v>1</v>
       </c>
     </row>
@@ -1705,16 +1705,10 @@
       <c r="B36" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F36">
-        <v>3</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="AC36">
-        <v>1</v>
-      </c>
-      <c r="AE36">
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="AH36">
         <v>1</v>
       </c>
     </row>
@@ -1735,22 +1729,22 @@
       <c r="B38" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="R38">
-        <v>1</v>
-      </c>
-      <c r="X38">
-        <v>3</v>
-      </c>
-      <c r="Y38">
-        <v>1</v>
-      </c>
-      <c r="AO38">
-        <v>1</v>
-      </c>
-      <c r="AU38">
-        <v>1</v>
-      </c>
-      <c r="AV38">
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>3</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="AE38">
+        <v>1</v>
+      </c>
+      <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AM38">
         <v>1</v>
       </c>
     </row>
@@ -1759,10 +1753,16 @@
       <c r="B39" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-      <c r="AH39">
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="Z39">
+        <v>1</v>
+      </c>
+      <c r="AA39">
         <v>1</v>
       </c>
     </row>
@@ -1772,9 +1772,15 @@
         <v>71</v>
       </c>
       <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
         <v>1</v>
       </c>
       <c r="Z40">
+        <v>1</v>
+      </c>
+      <c r="AA40">
         <v>1</v>
       </c>
     </row>
@@ -1783,22 +1789,28 @@
       <c r="B41" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
       <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>3</v>
-      </c>
-      <c r="P41">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <v>3</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="AA41">
         <v>1</v>
       </c>
       <c r="AE41">
         <v>1</v>
       </c>
-      <c r="AL41">
-        <v>1</v>
-      </c>
-      <c r="AM41">
+      <c r="AG41">
+        <v>1</v>
+      </c>
+      <c r="AJ41">
         <v>1</v>
       </c>
     </row>
@@ -1807,16 +1819,28 @@
       <c r="B42" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C42">
-        <v>3</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="Z42">
-        <v>1</v>
-      </c>
-      <c r="AA42">
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="S42">
+        <v>2</v>
+      </c>
+      <c r="V42">
+        <v>3</v>
+      </c>
+      <c r="W42">
+        <v>1</v>
+      </c>
+      <c r="AJ42">
+        <v>1</v>
+      </c>
+      <c r="AP42">
+        <v>1</v>
+      </c>
+      <c r="AS42">
+        <v>1</v>
+      </c>
+      <c r="AT42">
         <v>1</v>
       </c>
     </row>
@@ -1825,16 +1849,22 @@
       <c r="B43" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C43">
-        <v>3</v>
-      </c>
       <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="Z43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="J43">
         <v>1</v>
       </c>
       <c r="AA43">
+        <v>1</v>
+      </c>
+      <c r="AD43">
+        <v>1</v>
+      </c>
+      <c r="AG43">
         <v>1</v>
       </c>
     </row>
@@ -1843,28 +1873,10 @@
       <c r="B44" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="H44">
-        <v>2</v>
-      </c>
-      <c r="J44">
-        <v>3</v>
-      </c>
-      <c r="M44">
-        <v>1</v>
-      </c>
-      <c r="AA44">
-        <v>1</v>
-      </c>
-      <c r="AE44">
-        <v>1</v>
-      </c>
-      <c r="AG44">
-        <v>1</v>
-      </c>
-      <c r="AJ44">
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="AC44">
         <v>1</v>
       </c>
     </row>
@@ -1873,28 +1885,10 @@
       <c r="B45" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="M45">
-        <v>1</v>
-      </c>
-      <c r="S45">
-        <v>2</v>
-      </c>
-      <c r="V45">
-        <v>3</v>
-      </c>
-      <c r="W45">
-        <v>1</v>
-      </c>
-      <c r="AJ45">
-        <v>1</v>
-      </c>
-      <c r="AP45">
-        <v>1</v>
-      </c>
-      <c r="AS45">
-        <v>1</v>
-      </c>
-      <c r="AT45">
+      <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="AH45">
         <v>1</v>
       </c>
     </row>
@@ -1903,13 +1897,19 @@
       <c r="B46" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
       <c r="D46">
         <v>2</v>
       </c>
       <c r="G46">
         <v>3</v>
       </c>
-      <c r="J46">
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="Z46">
         <v>1</v>
       </c>
       <c r="AA46">
@@ -1918,7 +1918,7 @@
       <c r="AD46">
         <v>1</v>
       </c>
-      <c r="AG46">
+      <c r="AE46">
         <v>1</v>
       </c>
     </row>
@@ -1927,10 +1927,10 @@
       <c r="B47" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="Z47">
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="AF47">
         <v>1</v>
       </c>
     </row>
@@ -1939,366 +1939,354 @@
       <c r="B48" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="K48">
-        <v>2</v>
-      </c>
-      <c r="N48">
-        <v>3</v>
-      </c>
-      <c r="P48">
-        <v>1</v>
-      </c>
-      <c r="Z48">
-        <v>1</v>
-      </c>
-      <c r="AH48">
-        <v>1</v>
-      </c>
-      <c r="AK48">
-        <v>1</v>
-      </c>
-      <c r="AM48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:37">
-      <c r="A49" s="1"/>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="AB48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:40">
+      <c r="A49" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="B49" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
       <c r="D49">
-        <v>2</v>
-      </c>
-      <c r="G49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>1</v>
-      </c>
-      <c r="Z49">
+        <v>2</v>
+      </c>
+      <c r="J49">
+        <v>3</v>
+      </c>
+      <c r="M49">
         <v>1</v>
       </c>
       <c r="AA49">
         <v>1</v>
       </c>
-      <c r="AD49">
-        <v>1</v>
-      </c>
       <c r="AE49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:37">
+      <c r="AG49">
+        <v>1</v>
+      </c>
+      <c r="AJ49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:40">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="I50">
-        <v>2</v>
-      </c>
-      <c r="AF50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:37">
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>3</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="AA50">
+        <v>1</v>
+      </c>
+      <c r="AE50">
+        <v>1</v>
+      </c>
+      <c r="AG50">
+        <v>1</v>
+      </c>
+      <c r="AJ50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:40">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="AB51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:37">
-      <c r="A52" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <v>3</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="AA51">
+        <v>1</v>
+      </c>
+      <c r="AE51">
+        <v>1</v>
+      </c>
+      <c r="AG51">
+        <v>1</v>
+      </c>
+      <c r="AJ51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:40">
+      <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>2</v>
-      </c>
-      <c r="J52">
-        <v>3</v>
-      </c>
-      <c r="M52">
-        <v>1</v>
-      </c>
-      <c r="AA52">
-        <v>1</v>
-      </c>
-      <c r="AE52">
-        <v>1</v>
-      </c>
-      <c r="AG52">
-        <v>1</v>
-      </c>
-      <c r="AJ52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:37">
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>3</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="AC52">
+        <v>1</v>
+      </c>
+      <c r="AD52">
+        <v>1</v>
+      </c>
+      <c r="AI52">
+        <v>1</v>
+      </c>
+      <c r="AK52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:40">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="H53">
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="G53">
         <v>2</v>
       </c>
       <c r="J53">
         <v>3</v>
       </c>
-      <c r="M53">
-        <v>1</v>
-      </c>
-      <c r="AA53">
-        <v>1</v>
-      </c>
-      <c r="AE53">
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="AB53">
+        <v>1</v>
+      </c>
+      <c r="AD53">
         <v>1</v>
       </c>
       <c r="AG53">
         <v>1</v>
       </c>
-      <c r="AJ53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:37">
+      <c r="AI53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:40">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
       <c r="H54">
         <v>2</v>
       </c>
-      <c r="J54">
-        <v>3</v>
-      </c>
-      <c r="M54">
-        <v>1</v>
-      </c>
-      <c r="AA54">
+      <c r="I54">
+        <v>3</v>
+      </c>
+      <c r="K54">
         <v>1</v>
       </c>
       <c r="AE54">
         <v>1</v>
       </c>
-      <c r="AG54">
-        <v>1</v>
-      </c>
-      <c r="AJ54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:37">
+      <c r="AF54">
+        <v>1</v>
+      </c>
+      <c r="AH54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:40">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55">
-        <v>2</v>
-      </c>
-      <c r="J55">
-        <v>3</v>
-      </c>
-      <c r="L55">
-        <v>1</v>
-      </c>
-      <c r="AB55">
-        <v>1</v>
-      </c>
-      <c r="AC55">
-        <v>1</v>
-      </c>
-      <c r="AG55">
-        <v>1</v>
-      </c>
-      <c r="AI55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:37">
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>2</v>
+      </c>
+      <c r="K55">
+        <v>3</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="AE55">
+        <v>1</v>
+      </c>
+      <c r="AF55">
+        <v>1</v>
+      </c>
+      <c r="AH55">
+        <v>1</v>
+      </c>
+      <c r="AJ55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:40">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="G56">
-        <v>2</v>
-      </c>
-      <c r="J56">
-        <v>3</v>
-      </c>
-      <c r="L56">
-        <v>1</v>
-      </c>
-      <c r="AB56">
-        <v>1</v>
-      </c>
-      <c r="AD56">
-        <v>1</v>
-      </c>
-      <c r="AG56">
-        <v>1</v>
-      </c>
-      <c r="AI56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:37">
+      <c r="F56">
+        <v>3</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="AC56">
+        <v>1</v>
+      </c>
+      <c r="AE56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:40">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
-      <c r="I57">
-        <v>2</v>
-      </c>
-      <c r="K57">
-        <v>3</v>
-      </c>
-      <c r="M57">
-        <v>1</v>
-      </c>
-      <c r="AE57">
-        <v>1</v>
-      </c>
-      <c r="AF57">
-        <v>1</v>
-      </c>
-      <c r="AH57">
-        <v>1</v>
-      </c>
-      <c r="AJ57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:37">
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="AB57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:40">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F58">
-        <v>3</v>
+      <c r="D58">
+        <v>2</v>
       </c>
       <c r="H58">
         <v>1</v>
       </c>
-      <c r="AC58">
+      <c r="AA58">
         <v>1</v>
       </c>
       <c r="AE58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:37">
-      <c r="A59" s="1"/>
+    <row r="59" spans="1:40">
+      <c r="A59" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="B59" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="AB59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:37">
+      <c r="G59">
+        <v>2</v>
+      </c>
+      <c r="L59">
+        <v>3</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="AD59">
+        <v>1</v>
+      </c>
+      <c r="AI59">
+        <v>1</v>
+      </c>
+      <c r="AK59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:40">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D60">
-        <v>2</v>
-      </c>
-      <c r="H60">
-        <v>1</v>
-      </c>
-      <c r="AA60">
-        <v>1</v>
-      </c>
-      <c r="AE60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:37">
-      <c r="A61" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+      <c r="L60">
+        <v>3</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="AD60">
+        <v>1</v>
+      </c>
+      <c r="AI60">
+        <v>1</v>
+      </c>
+      <c r="AK60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:40">
+      <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D61">
-        <v>2</v>
-      </c>
-      <c r="L61">
-        <v>3</v>
-      </c>
-      <c r="N61">
-        <v>1</v>
-      </c>
-      <c r="AA61">
-        <v>1</v>
-      </c>
-      <c r="AI61">
-        <v>1</v>
-      </c>
-      <c r="AK61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:37">
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>5</v>
+      </c>
+      <c r="Q61">
+        <v>1</v>
+      </c>
+      <c r="AG61">
+        <v>1</v>
+      </c>
+      <c r="AL61">
+        <v>2</v>
+      </c>
+      <c r="AN61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:40">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D62">
-        <v>2</v>
-      </c>
-      <c r="L62">
-        <v>3</v>
-      </c>
-      <c r="N62">
         <v>1</v>
       </c>
       <c r="AA62">
         <v>1</v>
       </c>
-      <c r="AI62">
-        <v>1</v>
-      </c>
-      <c r="AK62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:37">
+    </row>
+    <row r="63" spans="1:40">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
         <v>94</v>
@@ -2310,7 +2298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:37">
+    <row r="64" spans="1:40">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
         <v>95</v>
@@ -2327,10 +2315,22 @@
       <c r="B65" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="AA65">
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>3</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="AC65">
+        <v>1</v>
+      </c>
+      <c r="AH65">
+        <v>1</v>
+      </c>
+      <c r="AJ65">
         <v>1</v>
       </c>
     </row>
@@ -2339,22 +2339,10 @@
       <c r="B66" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
       <c r="K66">
-        <v>3</v>
-      </c>
-      <c r="M66">
-        <v>1</v>
-      </c>
-      <c r="AC66">
         <v>1</v>
       </c>
       <c r="AH66">
-        <v>1</v>
-      </c>
-      <c r="AJ66">
         <v>1</v>
       </c>
     </row>
@@ -2363,10 +2351,10 @@
       <c r="B67" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="I67">
-        <v>1</v>
-      </c>
-      <c r="AF67">
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="AA67">
         <v>1</v>
       </c>
     </row>
@@ -2375,10 +2363,10 @@
       <c r="B68" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="AA68">
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="Z68">
         <v>1</v>
       </c>
     </row>
@@ -2424,9 +2412,15 @@
         <v>103</v>
       </c>
       <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72">
         <v>1</v>
       </c>
       <c r="Z72">
+        <v>1</v>
+      </c>
+      <c r="AA72">
         <v>1</v>
       </c>
     </row>
@@ -2436,46 +2430,64 @@
         <v>104</v>
       </c>
       <c r="C73">
-        <v>3</v>
-      </c>
-      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="I73">
+        <v>3</v>
+      </c>
+      <c r="K73">
         <v>1</v>
       </c>
       <c r="Z73">
         <v>1</v>
       </c>
-      <c r="AA73">
+      <c r="AC73">
+        <v>1</v>
+      </c>
+      <c r="AF73">
+        <v>1</v>
+      </c>
+      <c r="AH73">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:43">
-      <c r="A74" s="1"/>
+      <c r="A74" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B74" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F74">
-        <v>3</v>
-      </c>
-      <c r="I74">
-        <v>3</v>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>2</v>
       </c>
       <c r="K74">
-        <v>1</v>
-      </c>
-      <c r="AC74">
-        <v>2</v>
-      </c>
-      <c r="AF74">
+        <v>3</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="AB74">
+        <v>1</v>
+      </c>
+      <c r="AE74">
         <v>1</v>
       </c>
       <c r="AH74">
         <v>1</v>
       </c>
+      <c r="AJ74">
+        <v>1</v>
+      </c>
     </row>
     <row r="75" spans="1:43">
-      <c r="A75" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
         <v>106</v>
       </c>
@@ -2509,28 +2521,28 @@
       <c r="B76" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E76">
-        <v>1</v>
-      </c>
-      <c r="H76">
-        <v>2</v>
-      </c>
-      <c r="K76">
-        <v>3</v>
-      </c>
-      <c r="M76">
-        <v>1</v>
-      </c>
-      <c r="AB76">
-        <v>1</v>
-      </c>
-      <c r="AE76">
-        <v>1</v>
-      </c>
-      <c r="AH76">
-        <v>1</v>
-      </c>
-      <c r="AJ76">
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>2</v>
+      </c>
+      <c r="R76">
+        <v>3</v>
+      </c>
+      <c r="T76">
+        <v>1</v>
+      </c>
+      <c r="AG76">
+        <v>1</v>
+      </c>
+      <c r="AL76">
+        <v>1</v>
+      </c>
+      <c r="AO76">
+        <v>1</v>
+      </c>
+      <c r="AQ76">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +2551,28 @@
       <c r="B77" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J77">
-        <v>1</v>
-      </c>
-      <c r="O77">
-        <v>2</v>
-      </c>
-      <c r="R77">
-        <v>3</v>
-      </c>
-      <c r="T77">
-        <v>1</v>
-      </c>
-      <c r="AG77">
-        <v>1</v>
-      </c>
-      <c r="AL77">
-        <v>1</v>
-      </c>
-      <c r="AO77">
-        <v>1</v>
-      </c>
-      <c r="AQ77">
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>2</v>
+      </c>
+      <c r="Q77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>1</v>
+      </c>
+      <c r="AF77">
+        <v>1</v>
+      </c>
+      <c r="AK77">
+        <v>1</v>
+      </c>
+      <c r="AN77">
+        <v>1</v>
+      </c>
+      <c r="AP77">
         <v>1</v>
       </c>
     </row>
@@ -2569,28 +2581,28 @@
       <c r="B78" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I78">
-        <v>1</v>
-      </c>
-      <c r="N78">
-        <v>2</v>
-      </c>
-      <c r="Q78">
-        <v>3</v>
-      </c>
-      <c r="S78">
-        <v>1</v>
-      </c>
-      <c r="AF78">
-        <v>1</v>
-      </c>
-      <c r="AK78">
-        <v>1</v>
-      </c>
-      <c r="AN78">
-        <v>1</v>
-      </c>
-      <c r="AP78">
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>2</v>
+      </c>
+      <c r="J78">
+        <v>3</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="AB78">
+        <v>1</v>
+      </c>
+      <c r="AD78">
+        <v>1</v>
+      </c>
+      <c r="AG78">
+        <v>1</v>
+      </c>
+      <c r="AI78">
         <v>1</v>
       </c>
     </row>
@@ -2629,28 +2641,16 @@
       <c r="B80" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
-      <c r="G80">
-        <v>2</v>
-      </c>
-      <c r="J80">
-        <v>3</v>
-      </c>
-      <c r="L80">
-        <v>1</v>
-      </c>
-      <c r="AB80">
-        <v>1</v>
-      </c>
-      <c r="AD80">
-        <v>1</v>
-      </c>
-      <c r="AG80">
-        <v>1</v>
-      </c>
-      <c r="AI80">
+      <c r="F80">
+        <v>5</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="AC80">
+        <v>2</v>
+      </c>
+      <c r="AE80">
         <v>1</v>
       </c>
     </row>
@@ -2660,21 +2660,15 @@
         <v>112</v>
       </c>
       <c r="J81">
-        <v>1</v>
-      </c>
-      <c r="P81">
-        <v>3</v>
-      </c>
-      <c r="R81">
+        <v>2</v>
+      </c>
+      <c r="O81">
         <v>1</v>
       </c>
       <c r="AG81">
         <v>1</v>
       </c>
-      <c r="AM81">
-        <v>1</v>
-      </c>
-      <c r="AO81">
+      <c r="AL81">
         <v>1</v>
       </c>
     </row>
@@ -2683,40 +2677,60 @@
       <c r="B82" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D82">
-        <v>2</v>
-      </c>
-      <c r="F82">
-        <v>3</v>
-      </c>
-      <c r="H82">
-        <v>1</v>
-      </c>
-      <c r="AA82">
-        <v>1</v>
-      </c>
-      <c r="AC82">
-        <v>1</v>
-      </c>
-      <c r="AE82">
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>2</v>
+      </c>
+      <c r="J82">
+        <v>3</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="AB82">
+        <v>1</v>
+      </c>
+      <c r="AD82">
+        <v>1</v>
+      </c>
+      <c r="AG82">
+        <v>1</v>
+      </c>
+      <c r="AI82">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:45">
-      <c r="A83" s="1"/>
+      <c r="A83" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B83" s="1" t="s">
         <v>114</v>
       </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
       <c r="J83">
         <v>2</v>
       </c>
-      <c r="O83">
+      <c r="N83">
+        <v>3</v>
+      </c>
+      <c r="P83">
+        <v>1</v>
+      </c>
+      <c r="AA83">
         <v>1</v>
       </c>
       <c r="AG83">
         <v>1</v>
       </c>
-      <c r="AL83">
+      <c r="AK83">
+        <v>1</v>
+      </c>
+      <c r="AM83">
         <v>1</v>
       </c>
     </row>
@@ -2725,114 +2739,52 @@
       <c r="B84" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E84">
-        <v>1</v>
-      </c>
-      <c r="G84">
-        <v>2</v>
-      </c>
-      <c r="J84">
-        <v>3</v>
-      </c>
-      <c r="L84">
-        <v>1</v>
-      </c>
-      <c r="AB84">
-        <v>1</v>
-      </c>
-      <c r="AD84">
-        <v>1</v>
-      </c>
-      <c r="AG84">
-        <v>1</v>
-      </c>
-      <c r="AI84">
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="R84">
+        <v>2</v>
+      </c>
+      <c r="U84">
+        <v>3</v>
+      </c>
+      <c r="V84">
+        <v>1</v>
+      </c>
+      <c r="AJ84">
+        <v>1</v>
+      </c>
+      <c r="AO84">
+        <v>1</v>
+      </c>
+      <c r="AR84">
+        <v>1</v>
+      </c>
+      <c r="AS84">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:45">
-      <c r="A85" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A85" s="1"/>
       <c r="B85" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-      <c r="J85">
-        <v>2</v>
+      <c r="H85">
+        <v>2</v>
+      </c>
+      <c r="K85">
+        <v>3</v>
       </c>
       <c r="M85">
-        <v>3</v>
-      </c>
-      <c r="O85">
-        <v>1</v>
-      </c>
-      <c r="AA85">
-        <v>1</v>
-      </c>
-      <c r="AG85">
+        <v>1</v>
+      </c>
+      <c r="AE85">
+        <v>1</v>
+      </c>
+      <c r="AH85">
         <v>1</v>
       </c>
       <c r="AJ85">
-        <v>1</v>
-      </c>
-      <c r="AL85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:45">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="M86">
-        <v>1</v>
-      </c>
-      <c r="R86">
-        <v>2</v>
-      </c>
-      <c r="U86">
-        <v>3</v>
-      </c>
-      <c r="V86">
-        <v>1</v>
-      </c>
-      <c r="AJ86">
-        <v>1</v>
-      </c>
-      <c r="AO86">
-        <v>1</v>
-      </c>
-      <c r="AR86">
-        <v>1</v>
-      </c>
-      <c r="AS86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:45">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H87">
-        <v>2</v>
-      </c>
-      <c r="K87">
-        <v>3</v>
-      </c>
-      <c r="M87">
-        <v>1</v>
-      </c>
-      <c r="AE87">
-        <v>1</v>
-      </c>
-      <c r="AH87">
-        <v>1</v>
-      </c>
-      <c r="AJ87">
         <v>1</v>
       </c>
     </row>
@@ -2840,13 +2792,13 @@
   <mergeCells count="9">
     <mergeCell ref="C1:Y1"/>
     <mergeCell ref="Z1:AV1"/>
-    <mergeCell ref="A4:A14"/>
-    <mergeCell ref="A15:A33"/>
-    <mergeCell ref="A34:A51"/>
-    <mergeCell ref="A52:A60"/>
-    <mergeCell ref="A61:A74"/>
-    <mergeCell ref="A75:A84"/>
-    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="A14:A30"/>
+    <mergeCell ref="A31:A48"/>
+    <mergeCell ref="A49:A58"/>
+    <mergeCell ref="A59:A73"/>
+    <mergeCell ref="A74:A82"/>
+    <mergeCell ref="A83:A85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GMLA loading analysis/PMsystem_PRweb/(Output) Project conts.xlsx
+++ b/GMLA loading analysis/PMsystem_PRweb/(Output) Project conts.xlsx
@@ -280,9 +280,6 @@
     <t>Instinct Hybrid Analog/Digital(Ripley)</t>
   </si>
   <si>
-    <t>Venu Sq 2(IMP)</t>
-  </si>
-  <si>
     <t>vivomove Trend (previously "4")</t>
   </si>
   <si>
@@ -290,6 +287,9 @@
   </si>
   <si>
     <t>BlueNET Switch</t>
+  </si>
+  <si>
+    <t>Drive 53</t>
   </si>
   <si>
     <t>Premium Dash Cams</t>
@@ -1756,13 +1756,13 @@
       <c r="C39">
         <v>3</v>
       </c>
-      <c r="D39">
+      <c r="F39">
         <v>1</v>
       </c>
       <c r="Z39">
         <v>1</v>
       </c>
-      <c r="AA39">
+      <c r="AC39">
         <v>1</v>
       </c>
     </row>
@@ -1774,13 +1774,13 @@
       <c r="C40">
         <v>3</v>
       </c>
-      <c r="D40">
+      <c r="F40">
         <v>1</v>
       </c>
       <c r="Z40">
         <v>1</v>
       </c>
-      <c r="AA40">
+      <c r="AC40">
         <v>1</v>
       </c>
     </row>
@@ -2043,22 +2043,22 @@
       <c r="B52" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F52">
-        <v>2</v>
-      </c>
       <c r="G52">
         <v>1</v>
       </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
       <c r="L52">
         <v>3</v>
       </c>
       <c r="N52">
         <v>1</v>
       </c>
-      <c r="AC52">
-        <v>1</v>
-      </c>
       <c r="AD52">
+        <v>1</v>
+      </c>
+      <c r="AF52">
         <v>1</v>
       </c>
       <c r="AI52">
@@ -2175,35 +2175,47 @@
       <c r="B57" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="AB57">
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="AA57">
+        <v>1</v>
+      </c>
+      <c r="AE57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:40">
-      <c r="A58" s="1"/>
+      <c r="A58" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="B58" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D58">
-        <v>2</v>
-      </c>
-      <c r="H58">
-        <v>1</v>
-      </c>
-      <c r="AA58">
-        <v>1</v>
-      </c>
-      <c r="AE58">
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <v>3</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="AD58">
+        <v>1</v>
+      </c>
+      <c r="AI58">
+        <v>1</v>
+      </c>
+      <c r="AK58">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:40">
-      <c r="A59" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
         <v>90</v>
       </c>
@@ -2231,22 +2243,22 @@
       <c r="B60" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G60">
-        <v>2</v>
-      </c>
-      <c r="L60">
-        <v>3</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="AD60">
-        <v>1</v>
-      </c>
-      <c r="AI60">
-        <v>1</v>
-      </c>
-      <c r="AK60">
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="H60">
+        <v>3</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="AC60">
+        <v>1</v>
+      </c>
+      <c r="AE60">
+        <v>1</v>
+      </c>
+      <c r="AG60">
         <v>1</v>
       </c>
     </row>
@@ -2659,13 +2671,13 @@
       <c r="B81" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="J81">
+      <c r="I81">
         <v>2</v>
       </c>
       <c r="O81">
         <v>1</v>
       </c>
-      <c r="AG81">
+      <c r="AF81">
         <v>1</v>
       </c>
       <c r="AL81">
@@ -2795,8 +2807,8 @@
     <mergeCell ref="A4:A13"/>
     <mergeCell ref="A14:A30"/>
     <mergeCell ref="A31:A48"/>
-    <mergeCell ref="A49:A58"/>
-    <mergeCell ref="A59:A73"/>
+    <mergeCell ref="A49:A57"/>
+    <mergeCell ref="A58:A73"/>
     <mergeCell ref="A74:A82"/>
     <mergeCell ref="A83:A85"/>
   </mergeCells>

--- a/GMLA loading analysis/PMsystem_PRweb/(Output) Project conts.xlsx
+++ b/GMLA loading analysis/PMsystem_PRweb/(Output) Project conts.xlsx
@@ -1148,19 +1148,19 @@
       <c r="D14">
         <v>2</v>
       </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-      <c r="H14">
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
         <v>1</v>
       </c>
       <c r="AA14">
         <v>1</v>
       </c>
-      <c r="AC14">
-        <v>1</v>
-      </c>
-      <c r="AE14">
+      <c r="AF14">
+        <v>1</v>
+      </c>
+      <c r="AG14">
         <v>1</v>
       </c>
     </row>
@@ -1172,19 +1172,19 @@
       <c r="D15">
         <v>2</v>
       </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-      <c r="H15">
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
         <v>1</v>
       </c>
       <c r="AA15">
         <v>1</v>
       </c>
-      <c r="AC15">
-        <v>1</v>
-      </c>
-      <c r="AE15">
+      <c r="AF15">
+        <v>1</v>
+      </c>
+      <c r="AG15">
         <v>1</v>
       </c>
     </row>
@@ -1196,23 +1196,23 @@
       <c r="D16">
         <v>2</v>
       </c>
-      <c r="F16">
-        <v>3</v>
-      </c>
-      <c r="H16">
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
         <v>1</v>
       </c>
       <c r="AA16">
         <v>1</v>
       </c>
-      <c r="AC16">
-        <v>1</v>
-      </c>
-      <c r="AE16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:42">
+      <c r="AF16">
+        <v>1</v>
+      </c>
+      <c r="AG16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>48</v>
@@ -1230,7 +1230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:42">
+    <row r="18" spans="1:43">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>49</v>
@@ -1254,7 +1254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:42">
+    <row r="19" spans="1:43">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>50</v>
@@ -1265,10 +1265,10 @@
       <c r="G19">
         <v>2</v>
       </c>
-      <c r="J19">
-        <v>3</v>
-      </c>
       <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
         <v>1</v>
       </c>
       <c r="AA19">
@@ -1277,14 +1277,14 @@
       <c r="AD19">
         <v>1</v>
       </c>
-      <c r="AG19">
-        <v>1</v>
-      </c>
       <c r="AH19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:42">
+      <c r="AI19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>51</v>
@@ -1314,7 +1314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:42">
+    <row r="21" spans="1:43">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>52</v>
@@ -1344,7 +1344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:42">
+    <row r="22" spans="1:43">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>53</v>
@@ -1374,7 +1374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:42">
+    <row r="23" spans="1:43">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>54</v>
@@ -1404,7 +1404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:42">
+    <row r="24" spans="1:43">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>55</v>
@@ -1434,7 +1434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:42">
+    <row r="25" spans="1:43">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>56</v>
@@ -1442,7 +1442,7 @@
       <c r="F25">
         <v>1</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>2</v>
       </c>
       <c r="K25">
@@ -1454,7 +1454,7 @@
       <c r="AC25">
         <v>1</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>1</v>
       </c>
       <c r="AH25">
@@ -1464,7 +1464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:42">
+    <row r="26" spans="1:43">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>57</v>
@@ -1472,7 +1472,7 @@
       <c r="F26">
         <v>1</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>2</v>
       </c>
       <c r="K26">
@@ -1484,7 +1484,7 @@
       <c r="AC26">
         <v>1</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>1</v>
       </c>
       <c r="AH26">
@@ -1494,37 +1494,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:42">
+    <row r="27" spans="1:43">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="K27">
-        <v>2</v>
-      </c>
-      <c r="O27">
-        <v>3</v>
-      </c>
-      <c r="S27">
-        <v>1</v>
-      </c>
-      <c r="AB27">
-        <v>1</v>
-      </c>
-      <c r="AH27">
-        <v>1</v>
-      </c>
-      <c r="AL27">
-        <v>1</v>
-      </c>
-      <c r="AP27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:42">
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="P27">
+        <v>3</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="AC27">
+        <v>1</v>
+      </c>
+      <c r="AI27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
+        <v>1</v>
+      </c>
+      <c r="AQ27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:43">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>59</v>
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:42">
+    <row r="29" spans="1:43">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>60</v>
@@ -1584,7 +1584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:42">
+    <row r="30" spans="1:43">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>61</v>
@@ -1596,7 +1596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:42">
+    <row r="31" spans="1:43">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -1609,7 +1609,7 @@
       <c r="H31">
         <v>3</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>1</v>
       </c>
       <c r="AC31">
@@ -1618,11 +1618,11 @@
       <c r="AE31">
         <v>1</v>
       </c>
-      <c r="AG31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:42">
+      <c r="AH31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:43">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>63</v>
@@ -1849,7 +1849,7 @@
       <c r="B43" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>2</v>
       </c>
       <c r="G43">
@@ -1858,7 +1858,7 @@
       <c r="J43">
         <v>1</v>
       </c>
-      <c r="AA43">
+      <c r="AB43">
         <v>1</v>
       </c>
       <c r="AD43">
@@ -2330,19 +2330,19 @@
       <c r="F65">
         <v>1</v>
       </c>
-      <c r="K65">
-        <v>3</v>
-      </c>
-      <c r="M65">
+      <c r="L65">
+        <v>3</v>
+      </c>
+      <c r="N65">
         <v>1</v>
       </c>
       <c r="AC65">
         <v>1</v>
       </c>
-      <c r="AH65">
-        <v>1</v>
-      </c>
-      <c r="AJ65">
+      <c r="AI65">
+        <v>1</v>
+      </c>
+      <c r="AK65">
         <v>1</v>
       </c>
     </row>
